--- a/Assignment1/function.xlsx
+++ b/Assignment1/function.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>rgb2gray</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +163,25 @@
   </si>
   <si>
     <t>List of top 3 voted grayscale images with pixel values between 0~255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wr
+wg</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +189,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +213,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,11 +304,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,18 +430,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -288,6 +451,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -570,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H7:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:M17"/>
     </sheetView>
   </sheetViews>
@@ -591,17 +772,17 @@
       <c r="I7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -613,54 +794,54 @@
       <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -669,7 +850,7 @@
       <c r="K12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="12" t="s">
@@ -677,51 +858,51 @@
       </c>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="8:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -746,19 +927,325 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="M8:M11"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="M12:M16"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1:U15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="19" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="7:21" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="7:21" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="19">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment1/function.xlsx
+++ b/Assignment1/function.xlsx
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -336,78 +342,11 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,17 +369,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -448,27 +401,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -772,20 +709,20 @@
       <c r="I7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -794,54 +731,54 @@
       <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -850,60 +787,60 @@
       <c r="K12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="8:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
@@ -927,16 +864,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="M12:M16"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="M12:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,7 +886,7 @@
   <dimension ref="G1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="H4" sqref="H4:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -958,291 +895,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="7:21" x14ac:dyDescent="0.3">
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="7:21" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="7:21" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="12">
         <v>0.1</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="12">
         <v>0.2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="12">
         <v>0.3</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="12">
         <v>0.4</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="12">
         <v>0.5</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="12">
         <v>0.6</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="12">
         <v>0.7</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="12">
         <v>0.8</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="12">
         <v>0.9</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="12">
         <v>1</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="19">
+      <c r="H5" s="12">
         <v>0</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="19">
+      <c r="H6" s="12">
         <v>0.1</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="19">
+      <c r="H7" s="12">
         <v>0.2</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="19">
+      <c r="H8" s="12">
         <v>0.3</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="19">
+      <c r="H9" s="12">
         <v>0.4</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="19">
+      <c r="H10" s="12">
         <v>0.5</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="19">
+      <c r="H11" s="12">
         <v>0.6</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="19">
+      <c r="H12" s="12">
         <v>0.7</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="19">
+      <c r="H13" s="12">
         <v>0.8</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="19">
+      <c r="H14" s="12">
         <v>0.9</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="7:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="19">
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
